--- a/OPRFileImport/(OPR)Import Leave.xlsx
+++ b/OPRFileImport/(OPR)Import Leave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPRFileImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058DDAE7-74AD-494A-AD97-43C3820C19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF2AC9-AECF-461A-A35B-9397BDE303D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
